--- a/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Octoper-2025/جدول التجمع يوم 24-10-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Octoper-2025/جدول التجمع يوم 24-10-2025.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="559">
   <si>
     <t>بدايةالشيفت</t>
   </si>
@@ -1526,9 +1526,6 @@
   </si>
   <si>
     <t>المرج</t>
-  </si>
-  <si>
-    <t>ايليا عادل</t>
   </si>
   <si>
     <t>خالد عمر</t>
@@ -5065,611 +5062,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{F0AFE660-AC38-4769-9F0A-B3C90380DFC1}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{5AA385EE-5E6F-4A71-8E83-04A03E26838B}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{7F324742-474E-45F6-831F-5F1354E42715}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{9351D70C-E83B-4EF7-B6F3-823C226344AF}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{77BED2A9-3D92-4549-9F98-9CD1E0F630BB}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{FEC96EFB-984B-4FB9-9A74-597209A3BD06}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{14E59EE9-30D9-43E8-B42F-3DABDF2BDF7B}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{0830188A-30EB-4D59-A29F-60473098D81E}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{3A296410-76CD-4441-91A6-257E4FC85D3F}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{A9123946-6561-46A0-ACCC-5DAFDDD94FDD}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{4009DCC7-9EAA-4E38-AD4A-9B159B248525}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{42502834-EA74-4007-9956-00672678C5F4}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{7C6FB060-5E34-4477-AD93-112CAADAC0FB}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{5F8A35FE-66DE-4696-AAB1-E4E6E7CF33CC}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{EFA0BE7B-A752-4F41-A8F3-239D10360919}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{A638C013-E071-4337-A11E-3BEBD2E6F910}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{84A2B190-392B-4C94-856D-4200CDDD3E3E}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{3EA436AE-BA5C-4577-8933-0AF0FCE6BE28}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{B33CF5B2-4BA2-4613-B33A-7FA4D32707C8}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{3C9BFA8D-E061-40C3-833E-416511B472DD}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{E370D947-CD3C-463F-BF6A-24B7BA1A2C6F}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{DF31C4F9-A39F-40DB-AA13-0EA95C203CAF}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{978253FF-A300-41D0-84F8-1EE1A65C5803}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{E81FE68C-E83D-4473-8A91-6E9754B38C0E}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{4C7400FE-83B4-4F6E-A9EA-66B54DFCE1D7}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{5A992DD7-3AF3-4711-AF36-D1EF175AC440}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{1D7808BE-D01F-400C-99FF-06FAE4A93F33}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{4731D7BD-B440-48F2-AF8F-CCBF65579D5B}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{8DC3763A-62F8-40EE-8E3C-858C5FF1AE22}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{092D0B91-3C15-4A3D-BFE1-6D06BEFBA561}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{C9A35DB0-A132-46E9-9268-7625FB111BBC}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{078293DF-CA43-4747-B48C-85FB0C44C302}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{8BBE4145-8AF9-4391-9C28-1CD42D7B9AB6}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{77904116-9127-4907-9FB0-D65B03F81604}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{F97E04A1-0DCD-48D3-8E6F-F1F3EEE44FC6}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{CA4676E5-4B63-43DC-BD75-D3AEFB17BB70}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{3C94A48C-3A85-40DA-875C-DF4449DB5037}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{8A26D202-49D1-4C55-B4FF-C5214A628328}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{6C3A73E7-E1D4-4A27-A8B0-12B22D42AB01}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{13EB1C2B-4EA4-454B-B75B-D0EAF40F277A}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{1E0782C7-A743-486B-A7BE-4BE417AE2C4B}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{03EFEFD4-9818-43C1-9686-FBBDE4325C50}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{B976B723-9809-4CC8-A41A-4B37058A56C3}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{E7687B35-C558-4E91-A600-EB974A731CC5}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{A3EC41F5-68D1-445D-8EC5-1252C4FF72B2}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{5BA43DA2-24E3-4DEE-A103-A8036AE42DFB}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{47A623DE-C207-412F-BE73-014C4831A895}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{0789D534-B15D-4463-8D50-469DB356C773}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{2FB84902-B60D-4168-A2DF-C5F2A4650A45}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{7D733CD3-B0C2-4AB0-8D3C-F6F8202D7DD2}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{C649ACF2-28A9-4D2E-8685-3C76653A9BD4}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{8422E26F-BB72-42EA-99AF-02DAC12427BA}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{0892382B-7525-473F-BD81-4A2C5A40B70C}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{B23DF72F-7FDF-4823-B31C-D22E99C1E1E3}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{8AEA148B-A4F0-441E-B9B7-5043D385F912}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{40AAFDDB-4395-4229-AECB-C10BE1286C2C}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{783C84EE-A1F8-4BA3-B2BE-DB73B8C7FC97}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{F203561F-4364-4F1E-A2DC-88FAF54DFEFE}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{721AA62D-5825-41EF-9E36-0241FEF96EE9}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{6379FB95-E70F-40DB-B619-F903EB8FE0E5}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{52FB122F-DB8A-4CC8-A0BD-05FA803CA1AC}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{036651B9-E933-492F-A17F-881E45F3E51D}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{D65611EA-83E7-4000-AF7E-BD20A5AA40A5}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{4B5414EE-C86C-4F17-9B6E-4F4B7FAEC3ED}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{A858D4A9-D127-4E7D-944E-B972BA4D042A}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{00D18E41-5396-4F45-91DF-442DD6FCDF24}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{DAF6CF1A-D3D3-44A8-A6B3-02E3A2232F86}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{5D5EA0B5-C007-46D4-BB2B-6947A541F902}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{C23CBBB8-4B4D-4203-A008-655CE331E127}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{F694F748-06C8-4AF6-BFB1-6808EC665162}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{365F2EB1-B129-4CE9-8D9D-9D2633B9669C}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{DBADA5DB-B159-4C6C-B165-2EAA7257A96E}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{E2EFC821-CD3A-4DE9-9C59-CFE1C59C4B42}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{81DC434D-4195-48C9-8E94-CBE9BC8B1D6A}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{CA7938B0-45BB-4CCB-B472-C388828A1C19}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{55631C0D-EBD7-41DA-9ACA-2C2B3872B34E}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{788C8B62-E6BE-4455-A926-17F9653AB352}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{9DD16C0B-238B-4EB7-A4FE-5298C3145FC0}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{C1AC39B5-7696-4141-92D2-75D4D217D2C6}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{BF452094-7BCF-447A-B20B-ADE322C427D6}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{B29EC4BE-289B-4CA0-9A88-0803369C8AB3}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{A26FB0DE-94B4-4209-8CDE-8077B5DA8DF6}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{A96F5081-DBA0-4AA8-9315-6856E8335EFD}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{003C0FAE-DD78-4E16-A173-17E00E867F27}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{0C03E195-F9FC-49A6-B627-2BC86B4E513D}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{3B98B980-954F-4E48-92B5-CB03970B322D}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{200F108E-E63E-480A-8074-CDD540351B8A}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{E6A9E09F-C4D3-420C-A9E7-69F13F48A908}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{3772C862-D521-44BA-B37C-0C5394924EA1}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{8C9A7862-FF35-47E0-8B7B-3D4A905B9C82}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{E92A3B33-741E-4A76-831B-6C9BD29CBD74}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{34E99591-BD4B-4437-ADC5-B48A6D193B42}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{F2805A16-E26E-43A0-9A26-05493798714E}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{471DC411-D307-4E49-81CE-7AC9C5DCE0ED}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{736BEB27-74BC-4261-B3C9-668B938D7678}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{4DF41EAE-A9A1-4049-BD0D-86A48D7E032A}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{82277991-F27D-48F1-AD31-B9EE4ACC9380}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{E8E89635-3FAE-4FDE-B6D4-022CD2D353C9}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{1A5BD224-16BB-4ABC-8546-07652EC5FED3}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{3B1CFFBA-C789-474F-B56C-326BD817FEAF}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{D5CB1A6B-DC3C-4B36-97A8-17D7994CB9C5}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{79B9923C-E449-4784-A1D3-D2395A94802C}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{1632E8FF-F302-44B4-817A-B06EE25DA9F6}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{87A4909C-8CA1-4557-8DD4-62C82DC0D37F}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{9BBF1543-30A4-43F6-B2D8-45FAC4352CE0}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{3A6E796D-5BF1-4D6D-9DAE-F90D44BA60D3}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{54DDAEB0-0F37-42DB-9728-259A5252B1C6}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{6DD0CA14-9E9A-4862-B307-EA39F4337A03}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{E885F87E-B8AE-4C9C-B7CD-5FC9CD3EAA17}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{CEE1E65F-8D4C-4CFD-AC02-52EE5066EFD2}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{210B48DD-A62C-4C5C-9B0F-88B8FED44497}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{A51BCC36-97B6-49FA-9B9A-7EC1FE2DA806}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{9A575A01-F71B-4F44-98C8-A7F658FA1A95}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{D3C77F19-2F43-4519-8077-B9972B76BFC4}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{7842CAC7-D839-49E9-9120-C9F3763A0471}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{6DB7A0FF-F9AD-4323-AF62-7C7E6CF2B21E}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{1C3C08B2-0BC5-4228-8AF1-D012FEE40B8B}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{B594C6EE-0320-4C8A-8085-0667C6D8DBDC}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{D24BDE7B-A7F6-4752-A2E1-218827A18396}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{D92B872F-6023-42F5-B205-137D32C906F2}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{1A14B9E0-C375-4CCB-AB18-392753F9538D}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{A9592B88-ECB3-4AE9-8730-0BDCC1A96C35}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{4A56DDD6-42FA-4EB4-BFEC-75435A000FF7}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{9882D8F1-383B-49C3-8BC1-DA1FDC8C7D7D}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{65CCA43F-1852-437F-8E31-FE40F08597A4}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{3E2C99A4-8F97-4181-B1DF-2DF6B176179F}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{AAAB0FD0-5FFE-40AE-B035-1386A40BCE50}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{C02FEBC0-621E-4519-8270-36A7A9D03513}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{5263153D-9BAB-49C8-BB5D-6E0B6C155A88}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{4B512531-20A3-43FA-8D01-3ABAC3515C60}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{44173803-5AE3-4B02-808D-F15FA2000BAF}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{C0B8C687-EB5D-443D-8378-0859E1A00752}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{2C65A0F4-C8A8-4AB1-AE52-B36365E4E90B}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{05646ED2-DB85-4203-AF7A-5E613EB8C2BD}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{35A2F11C-AEFD-4D64-BA19-3DC97031A06E}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{6A112B6A-45EB-4D4E-956B-829C4089E395}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{DD7936E4-1BDD-4609-B1CB-A2BAA7BD95E0}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{F8A6FECE-54BE-49C7-B127-DEA7291D3743}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{0B63934A-5F6C-4397-85DF-AC0B7AD472AE}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{FA71B9B8-A267-4A6B-8CC9-86FE8EFC4E26}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{5B3B29D1-8A53-4854-B100-EFB2B0615F42}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{D0EBB56A-6546-47C5-8541-CDCF49B2E35C}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{B3B1C79B-EE0C-44C6-A92B-10F4DA048597}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{11A130A8-21C3-4815-A94E-85787AB6B832}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{13D97343-F5DC-49B6-A4DE-93C05CFDC4C9}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{4399788C-CD27-45D4-844A-5B49825BFC46}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{F1D9DBE5-B4C9-4EB0-BEF4-44A88E738888}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{0E5DC425-993C-4F4E-ACB6-DFFAA3FE1615}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{6F305BFE-A626-4D0C-BC4F-FF28B950D2CA}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{048A9458-7BA4-4DCD-ADA8-D0208498B480}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{C8E0A98F-41DB-4B9A-9A49-42EC2D57CB58}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{992C2123-67CC-4BD2-96E1-5D240741ECF1}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{28F32DDF-67F9-49EA-AD1D-3AF0DC498F22}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{67CA29D3-C453-4709-81EF-DC7F86F0FD5B}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{B609037E-A4C8-4603-875C-89320B5F2978}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{6077FC93-1A51-4507-A6C1-A7E31C0D4E17}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{1C318D75-B1A9-4070-8E17-6E485BC13116}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{B5E83D04-807E-44C6-A82F-DCDD3918F21A}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{6AFDC8F5-628B-4CFA-AB67-8F41F9B2192F}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{A3DFF29A-6CEE-464B-B540-280836628702}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{BA5661A9-0205-441C-8748-CCF804058FCC}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{BC4EE66C-F107-4DF5-B73F-91C8FC12A392}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{E32C8DC1-188F-42A8-AEC9-99613B2C538C}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{F6FEF5B0-ACD8-4F04-8A19-203625B272AA}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{42085D05-1EF9-4068-8E58-2A57F255C4B6}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{1C7E6CF4-F2B6-43CE-B584-F0C327D078DC}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{ED6D2761-3470-434C-A989-AF2FE0A8EFAD}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{2FA8DF44-22D9-40DD-B64D-8C7F0808C7D8}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{C09887F0-1E75-498A-A4F9-FFCF0BF57E11}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{D4F736C4-8A21-4918-8A6A-479DD40D4D7B}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{FCB71E50-2D04-44A9-8AEA-699328DD3D50}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{547E1CA3-29BD-4FB1-8DAF-67564D48FCEC}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{46AF066E-1CA0-4027-BB8F-032BE29AA74B}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{E79BB5B5-F42D-4B41-BDBE-299E72AC6B7F}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{AB7C7FE5-A55B-42FB-BEC7-21AB20210F2C}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{7D48F854-9145-4299-9BB8-57DB0C0B2806}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{F8C3A185-564E-4043-84C3-555F7FA8DD1A}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{C99C8A22-1456-4514-964E-8A6AE2464E95}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{C1047A9F-39B3-4623-BC30-384A6BB6C203}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{B14CFF26-D36C-4CD3-AE6C-59D6E43F9D94}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{04B54792-0B8C-4EDE-89A3-557F8317090A}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{C3086552-0751-4692-BFC4-C424A188DD2E}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{89EB93A6-CA14-468C-9676-CC5DB989B19E}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{BEE9E837-67B3-4D57-9339-86325FE341A4}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{73F6E2AF-D0B9-4998-A3B1-0679C7E523D4}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{87B09DF5-B8F5-4265-8630-E614563B55C7}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{DEBD7052-6860-4341-8BAA-603C2B4784E5}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{93EC25D7-9686-44AA-8673-95BB93F02707}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{6FDDC520-0DDA-41C9-978D-9FA4801B0862}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{13081B6F-7704-43C7-97B1-22BF4F1ABFB2}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{1861A20F-A265-4BAB-BAF3-8717F063CB73}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{136F4ED9-C78A-437D-AD51-AB4B97466434}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{1C0B7906-97C3-482F-A624-C3D3E73F985A}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{8145EA22-3729-42C7-B0BA-CD01B378649C}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{3DC0FCFF-4D48-4809-A172-C8B9040E80F4}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{08B4414D-D0EB-4B21-9919-9AB2342F8765}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{6F5F9EAB-775F-4216-A2AF-AED16AF6F017}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{B3F7BF5B-0DC1-454B-9803-0091D39D115E}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{71C27FE2-AF8C-4A33-A608-0A7DD551FE34}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{16AADCE9-0F17-4096-99ED-12359F20801C}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{77646888-0D98-4D81-AC68-558F5A403C34}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{A7F061DA-3A2D-46AF-BA25-4FB4AD9E4780}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{28747AE7-CE1F-468E-9A2A-6D2916CDB1BE}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{310F4E76-8D64-47CC-8E7C-97F79CC9C10F}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{5D7D3FFF-8C87-4B55-8671-EFD193277B46}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{1472FBA6-FA24-4782-86A6-CD5EF9BFD5EC}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{0C773F64-867B-4DBA-A467-4E86F73FBB66}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{4634CB90-F742-465F-AB96-8031F64B8958}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{D360BC1B-72DD-46E4-B504-34DEB8F489DA}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{CAEAFBC6-BEDB-4F24-BF2C-7B326BA2C8B4}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{FCB7DA3C-489D-4ABB-9316-474E59713093}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{80682008-192C-4CA9-80A1-A4C59438C863}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{7E99BB3C-69D8-4E06-8AF9-04F2C5EAD28E}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{684A627A-CF3B-4B5B-A25A-04F4891A9474}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{E2E20698-8089-4C3D-9E07-75633B100DC2}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{7E377146-876F-4F85-8C51-387CB73B363B}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{48D6E5A5-208D-4A7B-A9A6-C045F20195E4}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{9FCD65F8-9641-4B76-BF29-152934625C7F}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{21A03B0B-882F-413B-A479-3327B85D5D00}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{73B6C123-5FC4-4147-A249-AF6910290B9E}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{71AB4C65-6A7D-4CDD-9BC3-7FC0BB4406F7}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{82F6C9BA-DEF6-43AF-A5D1-0EB4DFE72A8F}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{B4B12190-EA50-4DBC-8BB1-2C59EF02EEA8}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{B64F0FB7-C135-4A71-8818-30F0627B019B}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{D655A5F3-2310-4C5E-B200-830F8D1164DF}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{5B2889CA-8F1E-4E32-AF1A-2C875615521D}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{AB168D6B-58FD-431A-9B3C-5C78903E8ED9}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{95F8D217-B41F-4464-9618-36426AC351EE}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{45C19C92-5AEC-486D-A1AF-6807AD604292}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{21369A0D-C9B8-45CA-93DC-DE5667A5D5DB}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{5B585C6A-E025-4CB4-AA99-FDE4ADFAD6AF}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{CE0F2E0D-E7D0-4E48-A171-E75E70FF1565}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{D82447C2-138B-4F0E-93EC-67DFA993ED7A}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{0A6627D9-D1F7-41B4-BC78-56A35B02040F}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{674223C4-4457-4B07-9FC2-7C7BDB8920A3}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{F06CB9CA-7BB1-40C4-A6B3-44B4B4754785}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{3608AA6B-FF11-4DFC-BE37-E3BC9C05165A}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{3C6705F6-00F7-4519-9377-F59D651489E7}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{27560E39-2329-4492-B211-0D0C741199A0}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{23A0C7AD-757F-449A-A351-FA0559EB6415}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{769819BD-AECF-4E7E-8D93-5761DA91EA10}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{84250979-E8B5-403D-9D2E-60B4FA3D45E0}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{8156957E-5ECD-4C13-930C-BB09849C1BC1}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{4382F91A-AE1D-4368-B6C9-9AB6C0AB0B06}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{A0EE59F3-BD18-458C-B5AA-926F90826754}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{B1DB1E44-4D7C-4339-96E5-ED705E5D175E}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{BE3D10E2-4B82-4A71-A2A9-AA3D89633A4C}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{C668DFBB-45CA-425B-90FE-414985477768}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{D2F0E716-FD54-473A-B841-FA9713287993}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{EB2A7DA2-B20C-4183-BC35-EFA2769466C1}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{7FC9B6DA-B934-4F68-B90F-B5D9907535FF}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{D1DE36D2-320E-48E8-A767-A1ED254633A2}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{E67321EB-116B-4B16-ACD7-29A1941CB519}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{A8C1BDA5-5757-4EC2-9427-5446F971FF8B}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{81B87762-2900-418F-A945-E62ECCEE9F44}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{362E04CA-2FCF-4810-BDDF-FE9B116A92EE}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{8BFF6378-8B19-4978-A2D1-32D9482958E5}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{A30AEE04-4416-49A8-92CB-F679F09DA51E}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{E9D94580-55E6-442B-A513-A37FF14EDD8C}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{19F02B82-785A-4DD6-9755-55E470DDFCB0}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{E3B4FF53-3F2F-4630-AD44-34A618E5EDA9}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{147A3192-1F09-4E53-9E9F-268831FDD20F}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{77000063-31B4-4BC7-88CE-453EEB92F011}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{F5C075A1-1464-4AF9-BB91-BF7C953C6D69}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{6E2FB09A-C238-4603-9140-927AAD3A4B60}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{EA403186-B4B8-4FF8-88C7-0CBAA0FD1A30}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{5372F342-D175-459E-AAE2-2A15840E55A1}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{7C013DFC-0335-4AE9-8982-1B120C0BE666}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{5551293D-18E3-46ED-A591-D4D597BE0C4C}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{AB0D192D-3BE3-425F-A4B4-B64980F2C955}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{8A855661-6E05-4ED4-8EE3-3A9AB6956A53}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{21FADFC4-83FC-4045-8023-A7C0E9FEB44F}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{EE9DC970-1BFA-467B-899C-7AC6305F0BF2}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{2A109842-E0B4-4D59-ACDA-EABBE62E64E8}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{0BA68FAB-2FBC-4661-A1B9-63686B818354}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{B1E90015-32EF-46C1-AF4B-DC6D671F7F0C}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{6DAD3977-C127-4CE8-9232-8B21ADE38632}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{B7D5B790-1D3E-4E7B-9E30-9783DBB6BE3A}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{A25D6D7B-64E9-429E-A527-4FD33192449B}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{A059000B-99C8-48EE-A4B5-81E867F89BEA}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{9AB2EA68-52B3-45A4-A8DC-ADF9A8D8B0AC}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{A299ADC6-C031-453B-B1C3-8FF6BD767BB1}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{B188C220-3CFB-4EEF-93F1-FC4106A61136}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{64D7952B-0B4A-4C56-9FDF-6D1A4E5C53AF}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{0A9B26C6-4727-45F3-81BE-977F320A9330}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{741E65EF-9AA6-4AFE-8F78-4DEC57E0ACB9}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{C7763C07-0498-413F-BBB3-0BA73CADEEAA}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{5205DB2E-40BD-4919-ADD6-1A6CD8F61E50}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{2EA6505F-05F3-4F05-A15D-FFE0EA590C09}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{D123FE56-2095-4214-BF36-A57500F7CEDC}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{453DF783-4944-44B4-B13D-FF77D24A9727}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{4ADCA5F4-6811-4EBE-A2FC-3F6D28672EB4}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{FD3213EE-91C9-4191-9BE7-4AD1967D0D8E}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{05630C60-BA1A-4E80-B258-3005746ED557}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{6AB49E7B-96ED-42F3-8C09-C686BAF29670}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{D32396D7-5983-4CFB-9F7F-3FE2693B3948}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{6416628C-8619-4834-94DC-E6C0DB4BB715}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{1A4A0235-E697-4187-BAE9-4040E084D921}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{0D4D3416-6648-4DD6-A406-8AC0A9F9EC76}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{76A1EF70-F688-4E78-A8D6-CE933659B6C7}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{CAC52F53-1FFA-4262-93AA-A08E67C804B6}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{FD976DC2-6ECD-4AA6-AE31-E260926E094C}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{546A1180-9D3A-46B4-BC67-A15AFF8AE043}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{D0A1A7D6-404F-4BF6-A70D-9DF5ACD8B206}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -5940,7 +5937,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG584"/>
+  <dimension ref="A1:AG582"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -29348,26 +29345,26 @@
     </row>
     <row r="518" ht="43.5" customHeight="1" spans="1:33">
       <c r="A518" s="6"/>
-      <c r="B518" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C518" s="20">
+      <c r="B518" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C518" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D518" s="21">
-        <v>1274904061</v>
-      </c>
-      <c r="E518" s="22">
-        <v>10323948</v>
-      </c>
-      <c r="F518" s="21" t="s">
+      <c r="D518" s="15">
+        <v>1207169781</v>
+      </c>
+      <c r="E518" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="F518" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="G518" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="H518" s="21" t="s">
-        <v>45</v>
+      <c r="G518" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H518" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="I518" s="25"/>
       <c r="J518" s="24"/>
@@ -29439,7 +29436,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D520" s="15">
-        <v>1207169781</v>
+        <v>1093443771</v>
       </c>
       <c r="E520" s="16" t="s">
         <v>455</v>
@@ -29448,10 +29445,10 @@
         <v>498</v>
       </c>
       <c r="G520" s="15" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="H520" s="15" t="s">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="I520" s="25"/>
       <c r="J520" s="24"/>
@@ -29481,13 +29478,27 @@
     </row>
     <row r="521" ht="43.5" customHeight="1" spans="1:33">
       <c r="A521" s="6"/>
-      <c r="B521" s="14"/>
-      <c r="C521" s="14"/>
-      <c r="D521" s="15"/>
-      <c r="E521" s="16"/>
-      <c r="F521" s="15"/>
-      <c r="G521" s="15"/>
-      <c r="H521" s="15"/>
+      <c r="B521" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C521" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D521" s="15">
+        <v>1090598043</v>
+      </c>
+      <c r="E521" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="F521" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="G521" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H521" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="I521" s="25"/>
       <c r="J521" s="24"/>
       <c r="K521" s="23"/>
@@ -29523,19 +29534,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D522" s="15">
-        <v>1093443771</v>
+        <v>1144462771</v>
       </c>
       <c r="E522" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F522" s="15" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G522" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H522" s="15" t="s">
-        <v>322</v>
+        <v>57</v>
       </c>
       <c r="I522" s="25"/>
       <c r="J522" s="24"/>
@@ -29572,19 +29583,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D523" s="15">
-        <v>1090598043</v>
+        <v>1556577514</v>
       </c>
       <c r="E523" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F523" s="15" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G523" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H523" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I523" s="25"/>
       <c r="J523" s="24"/>
@@ -29621,19 +29632,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D524" s="15">
-        <v>1144462771</v>
+        <v>1095204998</v>
       </c>
       <c r="E524" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F524" s="15" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G524" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H524" s="15" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="I524" s="25"/>
       <c r="J524" s="24"/>
@@ -29670,19 +29681,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D525" s="15">
-        <v>1556577514</v>
+        <v>1552456793</v>
       </c>
       <c r="E525" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F525" s="15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G525" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H525" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I525" s="25"/>
       <c r="J525" s="24"/>
@@ -29719,19 +29730,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D526" s="15">
-        <v>1095204998</v>
-      </c>
-      <c r="E526" s="16" t="s">
-        <v>455</v>
+        <v>1060392059</v>
+      </c>
+      <c r="E526" s="16">
+        <v>10344236</v>
       </c>
       <c r="F526" s="15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G526" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H526" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I526" s="25"/>
       <c r="J526" s="24"/>
@@ -29768,19 +29779,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D527" s="15">
-        <v>1552456793</v>
-      </c>
-      <c r="E527" s="16" t="s">
-        <v>455</v>
+        <v>1095204998</v>
+      </c>
+      <c r="E527" s="16">
+        <v>10344242</v>
       </c>
       <c r="F527" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G527" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H527" s="15" t="s">
-        <v>59</v>
+        <v>322</v>
       </c>
       <c r="I527" s="25"/>
       <c r="J527" s="24"/>
@@ -29817,19 +29828,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D528" s="15">
-        <v>1060392059</v>
+        <v>1004911039</v>
       </c>
       <c r="E528" s="16">
-        <v>10344236</v>
+        <v>10344279</v>
       </c>
       <c r="F528" s="15" t="s">
-        <v>505</v>
+        <v>347</v>
       </c>
       <c r="G528" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H528" s="15" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="I528" s="25"/>
       <c r="J528" s="24"/>
@@ -29866,19 +29877,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D529" s="15">
-        <v>1095204998</v>
-      </c>
-      <c r="E529" s="16">
-        <v>10344242</v>
+        <v>1226223707</v>
+      </c>
+      <c r="E529" s="16" t="s">
+        <v>505</v>
       </c>
       <c r="F529" s="15" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G529" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H529" s="15" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="I529" s="25"/>
       <c r="J529" s="24"/>
@@ -29908,27 +29919,13 @@
     </row>
     <row r="530" ht="43.5" customHeight="1" spans="1:33">
       <c r="A530" s="6"/>
-      <c r="B530" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C530" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D530" s="15">
-        <v>1004911039</v>
-      </c>
-      <c r="E530" s="16">
-        <v>10344279</v>
-      </c>
-      <c r="F530" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="G530" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H530" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="B530" s="14"/>
+      <c r="C530" s="14"/>
+      <c r="D530" s="15"/>
+      <c r="E530" s="16"/>
+      <c r="F530" s="15"/>
+      <c r="G530" s="15"/>
+      <c r="H530" s="15"/>
       <c r="I530" s="25"/>
       <c r="J530" s="24"/>
       <c r="K530" s="23"/>
@@ -29964,19 +29961,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D531" s="15">
-        <v>1226223707</v>
+        <v>1002365133</v>
       </c>
       <c r="E531" s="16" t="s">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="F531" s="15" t="s">
         <v>507</v>
       </c>
       <c r="G531" s="15" t="s">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="H531" s="15" t="s">
-        <v>397</v>
+        <v>508</v>
       </c>
       <c r="I531" s="25"/>
       <c r="J531" s="24"/>
@@ -30006,13 +30003,27 @@
     </row>
     <row r="532" ht="43.5" customHeight="1" spans="1:33">
       <c r="A532" s="6"/>
-      <c r="B532" s="14"/>
-      <c r="C532" s="14"/>
-      <c r="D532" s="15"/>
-      <c r="E532" s="16"/>
-      <c r="F532" s="15"/>
-      <c r="G532" s="15"/>
-      <c r="H532" s="15"/>
+      <c r="B532" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C532" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D532" s="15">
+        <v>1030215018</v>
+      </c>
+      <c r="E532" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="F532" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="G532" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H532" s="15" t="s">
+        <v>508</v>
+      </c>
       <c r="I532" s="25"/>
       <c r="J532" s="24"/>
       <c r="K532" s="23"/>
@@ -30047,20 +30058,20 @@
       <c r="C533" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D533" s="15">
-        <v>1002365133</v>
-      </c>
-      <c r="E533" s="16" t="s">
-        <v>455</v>
+      <c r="D533" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="E533" s="16">
+        <v>10344277</v>
       </c>
       <c r="F533" s="15" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G533" s="15" t="s">
         <v>194</v>
       </c>
       <c r="H533" s="15" t="s">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="I533" s="25"/>
       <c r="J533" s="24"/>
@@ -30090,27 +30101,13 @@
     </row>
     <row r="534" ht="43.5" customHeight="1" spans="1:33">
       <c r="A534" s="6"/>
-      <c r="B534" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C534" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D534" s="15">
-        <v>1030215018</v>
-      </c>
-      <c r="E534" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="F534" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="G534" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H534" s="15" t="s">
-        <v>509</v>
-      </c>
+      <c r="B534" s="14"/>
+      <c r="C534" s="14"/>
+      <c r="D534" s="15"/>
+      <c r="E534" s="16"/>
+      <c r="F534" s="15"/>
+      <c r="G534" s="15"/>
+      <c r="H534" s="15"/>
       <c r="I534" s="25"/>
       <c r="J534" s="24"/>
       <c r="K534" s="23"/>
@@ -30145,20 +30142,20 @@
       <c r="C535" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D535" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="E535" s="16">
-        <v>10344277</v>
+      <c r="D535" s="15">
+        <v>1223384690</v>
+      </c>
+      <c r="E535" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="F535" s="15" t="s">
         <v>512</v>
       </c>
       <c r="G535" s="15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H535" s="15" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="I535" s="25"/>
       <c r="J535" s="24"/>
@@ -30188,13 +30185,27 @@
     </row>
     <row r="536" ht="43.5" customHeight="1" spans="1:33">
       <c r="A536" s="6"/>
-      <c r="B536" s="14"/>
-      <c r="C536" s="14"/>
-      <c r="D536" s="15"/>
-      <c r="E536" s="16"/>
-      <c r="F536" s="15"/>
-      <c r="G536" s="15"/>
-      <c r="H536" s="15"/>
+      <c r="B536" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C536" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D536" s="15">
+        <v>1023850840</v>
+      </c>
+      <c r="E536" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="F536" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="G536" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H536" s="15" t="s">
+        <v>209</v>
+      </c>
       <c r="I536" s="25"/>
       <c r="J536" s="24"/>
       <c r="K536" s="23"/>
@@ -30229,20 +30240,20 @@
       <c r="C537" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D537" s="15">
-        <v>1223384690</v>
+      <c r="D537" s="15" t="s">
+        <v>514</v>
       </c>
       <c r="E537" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F537" s="15" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G537" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H537" s="15" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I537" s="25"/>
       <c r="J537" s="24"/>
@@ -30279,19 +30290,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D538" s="15">
-        <v>1023850840</v>
+        <v>1555493119</v>
       </c>
       <c r="E538" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F538" s="15" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G538" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H538" s="15" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I538" s="25"/>
       <c r="J538" s="24"/>
@@ -30327,20 +30338,20 @@
       <c r="C539" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D539" s="15" t="s">
-        <v>515</v>
+      <c r="D539" s="15">
+        <v>1116231956</v>
       </c>
       <c r="E539" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F539" s="15" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G539" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H539" s="15" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I539" s="25"/>
       <c r="J539" s="24"/>
@@ -30377,13 +30388,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D540" s="15">
-        <v>1555493119</v>
+        <v>1149475370</v>
       </c>
       <c r="E540" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F540" s="15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G540" s="15" t="s">
         <v>199</v>
@@ -30425,20 +30436,20 @@
       <c r="C541" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D541" s="15">
-        <v>1116231956</v>
+      <c r="D541" s="15" t="s">
+        <v>519</v>
       </c>
       <c r="E541" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F541" s="15" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G541" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H541" s="15" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="I541" s="25"/>
       <c r="J541" s="24"/>
@@ -30475,19 +30486,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D542" s="15">
-        <v>1149475370</v>
+        <v>1094190472</v>
       </c>
       <c r="E542" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F542" s="15" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G542" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H542" s="15" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="I542" s="25"/>
       <c r="J542" s="24"/>
@@ -30523,20 +30534,20 @@
       <c r="C543" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D543" s="15" t="s">
-        <v>520</v>
+      <c r="D543" s="15">
+        <v>1099361043</v>
       </c>
       <c r="E543" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F543" s="15" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G543" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H543" s="15" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="I543" s="25"/>
       <c r="J543" s="24"/>
@@ -30573,19 +30584,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D544" s="15">
-        <v>1094190472</v>
+        <v>1153210480</v>
       </c>
       <c r="E544" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F544" s="15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G544" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H544" s="15" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="I544" s="25"/>
       <c r="J544" s="24"/>
@@ -30622,19 +30633,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D545" s="15">
-        <v>1099361043</v>
+        <v>1505849880</v>
       </c>
       <c r="E545" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F545" s="15" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G545" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H545" s="15" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="I545" s="25"/>
       <c r="J545" s="24"/>
@@ -30671,13 +30682,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D546" s="15">
-        <v>1153210480</v>
+        <v>1066953383</v>
       </c>
       <c r="E546" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F546" s="15" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G546" s="15" t="s">
         <v>199</v>
@@ -30720,19 +30731,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D547" s="15">
-        <v>1505849880</v>
-      </c>
-      <c r="E547" s="16" t="s">
-        <v>455</v>
+        <v>0</v>
+      </c>
+      <c r="E547" s="16">
+        <v>10333590</v>
       </c>
       <c r="F547" s="15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G547" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H547" s="15" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="I547" s="25"/>
       <c r="J547" s="24"/>
@@ -30769,19 +30780,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D548" s="15">
-        <v>1066953383</v>
-      </c>
-      <c r="E548" s="16" t="s">
-        <v>455</v>
+        <v>1008361694</v>
+      </c>
+      <c r="E548" s="16">
+        <v>10333447</v>
       </c>
       <c r="F548" s="15" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G548" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H548" s="15" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="I548" s="25"/>
       <c r="J548" s="24"/>
@@ -30818,19 +30829,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D549" s="15">
-        <v>0</v>
+        <v>1555097529</v>
       </c>
       <c r="E549" s="16">
-        <v>10333590</v>
+        <v>10344175</v>
       </c>
       <c r="F549" s="15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G549" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H549" s="15" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="I549" s="25"/>
       <c r="J549" s="24"/>
@@ -30866,20 +30877,20 @@
       <c r="C550" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D550" s="15">
-        <v>1008361694</v>
+      <c r="D550" s="15" t="s">
+        <v>529</v>
       </c>
       <c r="E550" s="16">
-        <v>10333447</v>
+        <v>10344192</v>
       </c>
       <c r="F550" s="15" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G550" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H550" s="15" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="I550" s="25"/>
       <c r="J550" s="24"/>
@@ -30916,13 +30927,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D551" s="15">
-        <v>1555097529</v>
+        <v>1145149773</v>
       </c>
       <c r="E551" s="16">
-        <v>10344175</v>
+        <v>10344235</v>
       </c>
       <c r="F551" s="15" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G551" s="15" t="s">
         <v>199</v>
@@ -30964,20 +30975,20 @@
       <c r="C552" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D552" s="15" t="s">
-        <v>530</v>
+      <c r="D552" s="15">
+        <v>1551584488</v>
       </c>
       <c r="E552" s="16">
-        <v>10344192</v>
+        <v>10344250</v>
       </c>
       <c r="F552" s="15" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G552" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H552" s="15" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I552" s="25"/>
       <c r="J552" s="24"/>
@@ -31013,20 +31024,20 @@
       <c r="C553" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D553" s="15">
-        <v>1145149773</v>
+      <c r="D553" s="15" t="s">
+        <v>533</v>
       </c>
       <c r="E553" s="16">
-        <v>10344235</v>
+        <v>10344266</v>
       </c>
       <c r="F553" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G553" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H553" s="15" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="I553" s="25"/>
       <c r="J553" s="24"/>
@@ -31063,19 +31074,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D554" s="15">
-        <v>1551584488</v>
+        <v>1121899603</v>
       </c>
       <c r="E554" s="16">
-        <v>10344250</v>
+        <v>10344278</v>
       </c>
       <c r="F554" s="15" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G554" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H554" s="15" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="I554" s="25"/>
       <c r="J554" s="24"/>
@@ -31111,20 +31122,20 @@
       <c r="C555" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D555" s="15" t="s">
-        <v>534</v>
+      <c r="D555" s="15">
+        <v>1026041099</v>
       </c>
       <c r="E555" s="16">
-        <v>10344266</v>
+        <v>10344170</v>
       </c>
       <c r="F555" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G555" s="15" t="s">
         <v>199</v>
       </c>
       <c r="H555" s="15" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I555" s="25"/>
       <c r="J555" s="24"/>
@@ -31161,13 +31172,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D556" s="15">
-        <v>1121899603</v>
+        <v>1001474051</v>
       </c>
       <c r="E556" s="16">
-        <v>10344278</v>
+        <v>10344172</v>
       </c>
       <c r="F556" s="15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G556" s="15" t="s">
         <v>199</v>
@@ -31203,27 +31214,13 @@
     </row>
     <row r="557" ht="43.5" customHeight="1" spans="1:33">
       <c r="A557" s="6"/>
-      <c r="B557" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C557" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D557" s="15">
-        <v>1026041099</v>
-      </c>
-      <c r="E557" s="16">
-        <v>10344170</v>
-      </c>
-      <c r="F557" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="G557" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H557" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="B557" s="14"/>
+      <c r="C557" s="14"/>
+      <c r="D557" s="15"/>
+      <c r="E557" s="16"/>
+      <c r="F557" s="15"/>
+      <c r="G557" s="15"/>
+      <c r="H557" s="15"/>
       <c r="I557" s="25"/>
       <c r="J557" s="24"/>
       <c r="K557" s="23"/>
@@ -31258,20 +31255,20 @@
       <c r="C558" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D558" s="15">
-        <v>1001474051</v>
-      </c>
-      <c r="E558" s="16">
-        <v>10344172</v>
+      <c r="D558" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="E558" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="F558" s="15" t="s">
-        <v>538</v>
+        <v>217</v>
       </c>
       <c r="G558" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H558" s="15" t="s">
-        <v>213</v>
+        <v>62</v>
+      </c>
+      <c r="H558" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="I558" s="25"/>
       <c r="J558" s="24"/>
@@ -31301,13 +31298,27 @@
     </row>
     <row r="559" ht="43.5" customHeight="1" spans="1:33">
       <c r="A559" s="6"/>
-      <c r="B559" s="14"/>
-      <c r="C559" s="14"/>
-      <c r="D559" s="15"/>
-      <c r="E559" s="16"/>
-      <c r="F559" s="15"/>
-      <c r="G559" s="15"/>
-      <c r="H559" s="15"/>
+      <c r="B559" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C559" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D559" s="15">
+        <v>1207053881</v>
+      </c>
+      <c r="E559" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="F559" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="G559" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H559" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="I559" s="25"/>
       <c r="J559" s="24"/>
       <c r="K559" s="23"/>
@@ -31342,19 +31353,19 @@
       <c r="C560" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D560" s="15" t="s">
-        <v>539</v>
+      <c r="D560" s="15">
+        <v>1090642201</v>
       </c>
       <c r="E560" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F560" s="15" t="s">
-        <v>217</v>
+        <v>540</v>
       </c>
       <c r="G560" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H560" s="29" t="s">
+      <c r="H560" s="15" t="s">
         <v>63</v>
       </c>
       <c r="I560" s="25"/>
@@ -31392,19 +31403,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D561" s="15">
-        <v>1207053881</v>
-      </c>
-      <c r="E561" s="16" t="s">
-        <v>455</v>
+        <v>1550894577</v>
+      </c>
+      <c r="E561" s="16">
+        <v>10344212</v>
       </c>
       <c r="F561" s="15" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G561" s="15" t="s">
         <v>62</v>
       </c>
       <c r="H561" s="15" t="s">
-        <v>63</v>
+        <v>542</v>
       </c>
       <c r="I561" s="25"/>
       <c r="J561" s="24"/>
@@ -31441,19 +31452,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D562" s="15">
-        <v>1090642201</v>
-      </c>
-      <c r="E562" s="16" t="s">
-        <v>455</v>
+        <v>1509946439</v>
+      </c>
+      <c r="E562" s="16">
+        <v>10344252</v>
       </c>
       <c r="F562" s="15" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G562" s="15" t="s">
         <v>62</v>
       </c>
       <c r="H562" s="15" t="s">
-        <v>63</v>
+        <v>542</v>
       </c>
       <c r="I562" s="25"/>
       <c r="J562" s="24"/>
@@ -31490,19 +31501,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D563" s="15">
-        <v>1550894577</v>
-      </c>
-      <c r="E563" s="16">
-        <v>10344212</v>
+        <v>1026876551</v>
+      </c>
+      <c r="E563" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="F563" s="15" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G563" s="15" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="H563" s="15" t="s">
-        <v>543</v>
+        <v>18</v>
       </c>
       <c r="I563" s="25"/>
       <c r="J563" s="24"/>
@@ -31539,19 +31550,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D564" s="15">
-        <v>1509946439</v>
-      </c>
-      <c r="E564" s="16">
-        <v>10344252</v>
+        <v>1010808721</v>
+      </c>
+      <c r="E564" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="F564" s="15" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G564" s="15" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="H564" s="15" t="s">
-        <v>543</v>
+        <v>18</v>
       </c>
       <c r="I564" s="25"/>
       <c r="J564" s="24"/>
@@ -31587,14 +31598,14 @@
       <c r="C565" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D565" s="15">
-        <v>1026876551</v>
+      <c r="D565" s="15" t="s">
+        <v>546</v>
       </c>
       <c r="E565" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F565" s="15" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G565" s="15" t="s">
         <v>17</v>
@@ -31637,13 +31648,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D566" s="15">
-        <v>1010808721</v>
+        <v>1148811379</v>
       </c>
       <c r="E566" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F566" s="15" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G566" s="15" t="s">
         <v>17</v>
@@ -31685,14 +31696,14 @@
       <c r="C567" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D567" s="15" t="s">
-        <v>547</v>
+      <c r="D567" s="15">
+        <v>1070390659</v>
       </c>
       <c r="E567" s="16" t="s">
         <v>455</v>
       </c>
       <c r="F567" s="15" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G567" s="15" t="s">
         <v>17</v>
@@ -31734,14 +31745,14 @@
       <c r="C568" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D568" s="15">
-        <v>1148811379</v>
-      </c>
-      <c r="E568" s="16" t="s">
-        <v>455</v>
+      <c r="D568" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="E568" s="16">
+        <v>10344214</v>
       </c>
       <c r="F568" s="15" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G568" s="15" t="s">
         <v>17</v>
@@ -31784,13 +31795,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D569" s="15">
-        <v>1070390659</v>
-      </c>
-      <c r="E569" s="16" t="s">
-        <v>455</v>
+        <v>1555975766</v>
+      </c>
+      <c r="E569" s="16">
+        <v>10344308</v>
       </c>
       <c r="F569" s="15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G569" s="15" t="s">
         <v>17</v>
@@ -31832,14 +31843,14 @@
       <c r="C570" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D570" s="15" t="s">
-        <v>551</v>
+      <c r="D570" s="15">
+        <v>1040334849</v>
       </c>
       <c r="E570" s="16">
-        <v>10344214</v>
+        <v>10344286</v>
       </c>
       <c r="F570" s="15" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G570" s="15" t="s">
         <v>17</v>
@@ -31875,27 +31886,13 @@
     </row>
     <row r="571" ht="43.5" customHeight="1" spans="1:33">
       <c r="A571" s="6"/>
-      <c r="B571" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C571" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D571" s="15">
-        <v>1555975766</v>
-      </c>
-      <c r="E571" s="16">
-        <v>10344308</v>
-      </c>
-      <c r="F571" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="G571" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H571" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="B571" s="14"/>
+      <c r="C571" s="14"/>
+      <c r="D571" s="15"/>
+      <c r="E571" s="16"/>
+      <c r="F571" s="15"/>
+      <c r="G571" s="15"/>
+      <c r="H571" s="15"/>
       <c r="I571" s="25"/>
       <c r="J571" s="24"/>
       <c r="K571" s="23"/>
@@ -31924,26 +31921,26 @@
     </row>
     <row r="572" ht="43.5" customHeight="1" spans="1:33">
       <c r="A572" s="6"/>
-      <c r="B572" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C572" s="14">
+      <c r="B572" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C572" s="20">
         <v>0.166666666666667</v>
       </c>
-      <c r="D572" s="15">
-        <v>1040334849</v>
-      </c>
-      <c r="E572" s="16">
-        <v>10344286</v>
-      </c>
-      <c r="F572" s="15" t="s">
+      <c r="D572" s="21">
+        <v>1277360666</v>
+      </c>
+      <c r="E572" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="F572" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="G572" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H572" s="15" t="s">
-        <v>18</v>
+      <c r="G572" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H572" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="I572" s="25"/>
       <c r="J572" s="24"/>
@@ -32008,26 +32005,26 @@
     </row>
     <row r="574" ht="43.5" customHeight="1" spans="1:33">
       <c r="A574" s="6"/>
-      <c r="B574" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C574" s="20">
+      <c r="B574" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C574" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D574" s="21">
-        <v>1277360666</v>
-      </c>
-      <c r="E574" s="22" t="s">
+      <c r="D574" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="E574" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="F574" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="G574" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H574" s="21" t="s">
-        <v>234</v>
+      <c r="F574" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="G574" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H574" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="I574" s="25"/>
       <c r="J574" s="24"/>
@@ -32057,13 +32054,27 @@
     </row>
     <row r="575" ht="43.5" customHeight="1" spans="1:33">
       <c r="A575" s="6"/>
-      <c r="B575" s="14"/>
-      <c r="C575" s="14"/>
-      <c r="D575" s="15"/>
-      <c r="E575" s="16"/>
-      <c r="F575" s="15"/>
-      <c r="G575" s="15"/>
-      <c r="H575" s="15"/>
+      <c r="B575" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C575" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D575" s="15">
+        <v>1203091448</v>
+      </c>
+      <c r="E575" s="16">
+        <v>10344261</v>
+      </c>
+      <c r="F575" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="G575" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H575" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="I575" s="25"/>
       <c r="J575" s="24"/>
       <c r="K575" s="23"/>
@@ -32092,27 +32103,13 @@
     </row>
     <row r="576" ht="43.5" customHeight="1" spans="1:33">
       <c r="A576" s="6"/>
-      <c r="B576" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C576" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D576" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="E576" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="F576" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="G576" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H576" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="B576" s="14"/>
+      <c r="C576" s="14"/>
+      <c r="D576" s="15"/>
+      <c r="E576" s="16"/>
+      <c r="F576" s="15"/>
+      <c r="G576" s="15"/>
+      <c r="H576" s="15"/>
       <c r="I576" s="25"/>
       <c r="J576" s="24"/>
       <c r="K576" s="23"/>
@@ -32139,29 +32136,17 @@
       <c r="AF576" s="23"/>
       <c r="AG576" s="23"/>
     </row>
-    <row r="577" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A577" s="6"/>
-      <c r="B577" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C577" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D577" s="15">
-        <v>1203091448</v>
-      </c>
-      <c r="E577" s="16">
-        <v>10344261</v>
-      </c>
-      <c r="F577" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="G577" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H577" s="15" t="s">
-        <v>71</v>
-      </c>
+    <row r="577" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A577" s="9">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B577" s="10"/>
+      <c r="C577" s="10"/>
+      <c r="D577" s="10"/>
+      <c r="E577" s="11"/>
+      <c r="F577" s="10"/>
+      <c r="G577" s="10"/>
+      <c r="H577" s="10"/>
       <c r="I577" s="25"/>
       <c r="J577" s="24"/>
       <c r="K577" s="23"/>
@@ -32189,14 +32174,28 @@
       <c r="AG577" s="23"/>
     </row>
     <row r="578" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A578" s="6"/>
-      <c r="B578" s="14"/>
-      <c r="C578" s="14"/>
-      <c r="D578" s="15"/>
-      <c r="E578" s="16"/>
-      <c r="F578" s="15"/>
-      <c r="G578" s="15"/>
-      <c r="H578" s="15"/>
+      <c r="A578" s="9"/>
+      <c r="B578" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C578" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D578" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E578" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F578" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G578" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H578" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I578" s="25"/>
       <c r="J578" s="24"/>
       <c r="K578" s="23"/>
@@ -32223,17 +32222,15 @@
       <c r="AF578" s="23"/>
       <c r="AG578" s="23"/>
     </row>
-    <row r="579" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A579" s="9">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="B579" s="10"/>
-      <c r="C579" s="10"/>
-      <c r="D579" s="10"/>
-      <c r="E579" s="11"/>
-      <c r="F579" s="10"/>
-      <c r="G579" s="10"/>
-      <c r="H579" s="10"/>
+    <row r="579" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A579" s="6"/>
+      <c r="B579" s="14"/>
+      <c r="C579" s="14"/>
+      <c r="D579" s="15"/>
+      <c r="E579" s="16"/>
+      <c r="F579" s="15"/>
+      <c r="G579" s="15"/>
+      <c r="H579" s="15"/>
       <c r="I579" s="25"/>
       <c r="J579" s="24"/>
       <c r="K579" s="23"/>
@@ -32260,28 +32257,28 @@
       <c r="AF579" s="23"/>
       <c r="AG579" s="23"/>
     </row>
-    <row r="580" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A580" s="9"/>
-      <c r="B580" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C580" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D580" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E580" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F580" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G580" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H580" s="8" t="s">
-        <v>6</v>
+    <row r="580" ht="46.9" customHeight="1" spans="1:33">
+      <c r="A580" s="6"/>
+      <c r="B580" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C580" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="D580" s="21">
+        <v>1126665095</v>
+      </c>
+      <c r="E580" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F580" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="G580" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H580" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="I580" s="25"/>
       <c r="J580" s="24"/>
@@ -32309,7 +32306,7 @@
       <c r="AF580" s="23"/>
       <c r="AG580" s="23"/>
     </row>
-    <row r="581" ht="47.25" customHeight="1" spans="1:33">
+    <row r="581" ht="46.9" customHeight="1" spans="1:33">
       <c r="A581" s="6"/>
       <c r="B581" s="14"/>
       <c r="C581" s="14"/>
@@ -32344,29 +32341,15 @@
       <c r="AF581" s="23"/>
       <c r="AG581" s="23"/>
     </row>
-    <row r="582" ht="46.9" customHeight="1" spans="1:33">
+    <row r="582" ht="15" customHeight="1" spans="1:33">
       <c r="A582" s="6"/>
-      <c r="B582" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C582" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="D582" s="21">
-        <v>1126665095</v>
-      </c>
-      <c r="E582" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F582" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="G582" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H582" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="B582" s="30"/>
+      <c r="C582" s="30"/>
+      <c r="D582" s="31"/>
+      <c r="E582" s="32"/>
+      <c r="F582" s="31"/>
+      <c r="G582" s="31"/>
+      <c r="H582" s="31"/>
       <c r="I582" s="25"/>
       <c r="J582" s="24"/>
       <c r="K582" s="23"/>
@@ -32393,76 +32376,6 @@
       <c r="AF582" s="23"/>
       <c r="AG582" s="23"/>
     </row>
-    <row r="583" ht="46.9" customHeight="1" spans="1:33">
-      <c r="A583" s="6"/>
-      <c r="B583" s="14"/>
-      <c r="C583" s="14"/>
-      <c r="D583" s="15"/>
-      <c r="E583" s="16"/>
-      <c r="F583" s="15"/>
-      <c r="G583" s="15"/>
-      <c r="H583" s="15"/>
-      <c r="I583" s="25"/>
-      <c r="J583" s="24"/>
-      <c r="K583" s="23"/>
-      <c r="L583" s="23"/>
-      <c r="M583" s="23"/>
-      <c r="N583" s="23"/>
-      <c r="O583" s="23"/>
-      <c r="P583" s="23"/>
-      <c r="Q583" s="23"/>
-      <c r="R583" s="23"/>
-      <c r="S583" s="23"/>
-      <c r="T583" s="23"/>
-      <c r="U583" s="23"/>
-      <c r="V583" s="23"/>
-      <c r="W583" s="23"/>
-      <c r="X583" s="23"/>
-      <c r="Y583" s="23"/>
-      <c r="Z583" s="23"/>
-      <c r="AA583" s="23"/>
-      <c r="AB583" s="23"/>
-      <c r="AC583" s="23"/>
-      <c r="AD583" s="23"/>
-      <c r="AE583" s="23"/>
-      <c r="AF583" s="23"/>
-      <c r="AG583" s="23"/>
-    </row>
-    <row r="584" ht="15" customHeight="1" spans="1:33">
-      <c r="A584" s="6"/>
-      <c r="B584" s="30"/>
-      <c r="C584" s="30"/>
-      <c r="D584" s="31"/>
-      <c r="E584" s="32"/>
-      <c r="F584" s="31"/>
-      <c r="G584" s="31"/>
-      <c r="H584" s="31"/>
-      <c r="I584" s="25"/>
-      <c r="J584" s="24"/>
-      <c r="K584" s="23"/>
-      <c r="L584" s="23"/>
-      <c r="M584" s="23"/>
-      <c r="N584" s="23"/>
-      <c r="O584" s="23"/>
-      <c r="P584" s="23"/>
-      <c r="Q584" s="23"/>
-      <c r="R584" s="23"/>
-      <c r="S584" s="23"/>
-      <c r="T584" s="23"/>
-      <c r="U584" s="23"/>
-      <c r="V584" s="23"/>
-      <c r="W584" s="23"/>
-      <c r="X584" s="23"/>
-      <c r="Y584" s="23"/>
-      <c r="Z584" s="23"/>
-      <c r="AA584" s="23"/>
-      <c r="AB584" s="23"/>
-      <c r="AC584" s="23"/>
-      <c r="AD584" s="23"/>
-      <c r="AE584" s="23"/>
-      <c r="AF584" s="23"/>
-      <c r="AG584" s="23"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A2:A3"/>
@@ -32478,7 +32391,7 @@
     <mergeCell ref="A433:A434"/>
     <mergeCell ref="A464:A465"/>
     <mergeCell ref="A476:A477"/>
-    <mergeCell ref="A579:A580"/>
+    <mergeCell ref="A577:A578"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
